--- a/portfolio-website/src/assets/projects/data.xlsx
+++ b/portfolio-website/src/assets/projects/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\portfolio-website\portfolio-website\src\assets\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9D0E8BC-9E55-4441-B4FB-9FD8CB764D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA1AA04-C49E-4EFA-A557-7DD4A92D963D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4C34807-FEDD-48E8-9170-41ACA9A26416}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -73,6 +71,30 @@
   </si>
   <si>
     <t>python_rasterizer.png</t>
+  </si>
+  <si>
+    <t>Pop-up Comments</t>
+  </si>
+  <si>
+    <t>Annoyed by the fact that to see comments on a YouTube video you have to scroll down, thereby missing parts of the video, I created an extension that added a button to show comments in a pop-up window.</t>
+  </si>
+  <si>
+    <t>https://chrome.google.com/webstore/detail/youtube-popup-comments/khlcpbakdpgeghfadigjkkmmhdccfmkk?hl=en&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>pop_up_comments.jpg</t>
+  </si>
+  <si>
+    <t>Hardware Simulator</t>
+  </si>
+  <si>
+    <t>Following my interest in the inner workings of computers, I found that learning about circuits was best done graphically, and interactively. I created a 'game' that allows users to drag- and- drop logic gates, and form connections intuitively. Users can then create their own logic gates, combining these to create more and more complex circuits. This was later used in my school to teach boolean logic.</t>
+  </si>
+  <si>
+    <t>https://github.com/DiamondDeadMaw/Hardware-Simulator</t>
+  </si>
+  <si>
+    <t>hardware_sim.png</t>
   </si>
 </sst>
 </file>
@@ -447,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23B0870-1BA2-4E2D-84EA-CCD8DD9DBD8C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,12 +525,66 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:4" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{88F2E28E-E5DB-4B9E-87DD-D010C9D6D3DB}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{0B156091-BC5F-4B96-9D64-79B2C624E7E3}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{32816C4C-2F4F-4C07-A489-8589A24C53D9}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{C6BDAA21-8A96-4291-9CCB-8435D66EFE5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>